--- a/Data/Rerefence List 20191003 for team.xlsx
+++ b/Data/Rerefence List 20191003 for team.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\내 책 주석 작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team PhonoSapiens\PhonoSapiens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE12ED8D-7134-4D07-9B6B-16A34390C1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4978A7B-7D05-433B-9268-F42F75B0AE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{83809C6B-DABC-4C89-A49D-DD788B0682BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$G$214</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1568,7 +1568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,8 +1630,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1647,6 +1663,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1725,12 +1747,118 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3795,7 +3923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A540DC6-3F24-4F67-935A-150CB33AC002}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A540DC6-3F24-4F67-935A-150CB33AC002}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4174,6 +4302,162 @@
   <dataFields count="1">
     <dataField name="Count of URL" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="13">
+    <format dxfId="12">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="10">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="16"/>
+            <x v="27"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="56"/>
+            <x v="65"/>
+            <x v="81"/>
+            <x v="82"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="68"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="81"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="65"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="37"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="10">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="16"/>
+            <x v="27"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="56"/>
+            <x v="65"/>
+            <x v="81"/>
+            <x v="82"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="10">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="16"/>
+            <x v="27"/>
+            <x v="34"/>
+            <x v="37"/>
+            <x v="56"/>
+            <x v="65"/>
+            <x v="81"/>
+            <x v="82"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="11">
+            <x v="1"/>
+            <x v="10"/>
+            <x v="21"/>
+            <x v="28"/>
+            <x v="30"/>
+            <x v="54"/>
+            <x v="63"/>
+            <x v="68"/>
+            <x v="73"/>
+            <x v="74"/>
+            <x v="80"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4187,7 +4471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D37114E1-7378-429C-B1E2-9EE7834EB043}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D37114E1-7378-429C-B1E2-9EE7834EB043}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -5004,11 +5288,1761 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A2314-FB63-45C9-94E3-4F4D7FA31F85}">
+  <dimension ref="A3:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B39" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="B43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B44" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="B47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B62" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B77" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B79" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B84" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B85" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B89" s="21">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B45284E-DB2C-438A-A79A-5CAE02C45FD1}">
+  <dimension ref="A3:B129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B34" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B39" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="B58" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B62" s="21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B74" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B77" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="B79" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B86" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B87" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B89" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B95" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B110" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B113" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B119" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B121" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B122" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B125" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B126" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B129" s="21">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A176B1-4676-4B0E-A8CB-C008B529E4EA}">
   <dimension ref="A1:G619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:G214"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10573,1754 +12607,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A2314-FB63-45C9-94E3-4F4D7FA31F85}">
-  <dimension ref="A3:B89"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="B16" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="B17" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="B23" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B26" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B36" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="B38" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="B39" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B41" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="B43" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="B44" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B45" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="B47" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="B48" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="B50" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="B51" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="B52" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B58" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B59" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B60" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="B62" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B67" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B69" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B71" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B72" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B73" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B75" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B76" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B77" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B78" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B79" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B80" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B81" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B83" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="B84" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B85" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B86" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="B89" s="21">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B45284E-DB2C-438A-A79A-5CAE02C45FD1}">
-  <dimension ref="A3:B129"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="21">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="B15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="B34" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B36" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="B38" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="B39" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="B57" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="B58" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B59" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B62" s="21">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B66" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B71" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B73" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B74" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="B76" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="B77" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="B79" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="B83" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B86" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="B87" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B88" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="B89" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B92" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B93" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B94" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B95" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B96" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B98" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="B102" s="21">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B103" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="B104" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B109" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="B110" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="B111" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B113" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B114" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B115" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="B117" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="B118" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B119" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="B120" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="B121" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B122" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B124" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B125" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="B126" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="B129" s="21">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>